--- a/seminar-6/WebApp/output.xlsx
+++ b/seminar-6/WebApp/output.xlsx
@@ -340,12 +340,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>